--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sisihuang/Documents/personal info./for fun/AsicianFoodBerlin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sisihuang/Documents/personal info./for fun/InteractiveMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="11340" yWindow="1000" windowWidth="28800" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Stars</t>
   </si>
@@ -100,36 +100,9 @@
     <t xml:space="preserve"> Otto-Suhr-Allee 25, 10585 Berlin</t>
   </si>
   <si>
-    <t>Bismarckstraße 24, 10625 Berlin</t>
-  </si>
-  <si>
-    <t>Kantstraße 120, 10625 Berlin</t>
-  </si>
-  <si>
-    <t>Grunewaldstraße 10, 10823 Berlin</t>
-  </si>
-  <si>
-    <t>Uhlandstraße 194, 10623 Berlin</t>
-  </si>
-  <si>
-    <t>Uhlandstraße 170A, 10719 Berlin</t>
-  </si>
-  <si>
-    <t>Mittelstraße 24, 10117 Berlin</t>
-  </si>
-  <si>
-    <t>Wielandstraße 37, 10629 Berlin</t>
-  </si>
-  <si>
     <t>Mehringdamm 64, 10961 Berlin</t>
   </si>
   <si>
-    <t>Gipsstraße 3, 10119 Berlin</t>
-  </si>
-  <si>
-    <t>Mulackstraße 33, 10119 Berlin</t>
-  </si>
-  <si>
     <t>Monsieur Vuong</t>
   </si>
   <si>
@@ -149,6 +122,114 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>wb</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ccr</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Bismarckstrasse 24, 10625 Berlin</t>
+  </si>
+  <si>
+    <t>Kantstrasse 120, 10625 Berlin</t>
+  </si>
+  <si>
+    <t>Grunewaldstrasse 10, 10823 Berlin</t>
+  </si>
+  <si>
+    <t>Uhlandstrasse 194, 10623 Berlin</t>
+  </si>
+  <si>
+    <t>Uhlandstrasse 170A, 10719 Berlin</t>
+  </si>
+  <si>
+    <t>Mittelstrasse 24, 10117 Berlin</t>
+  </si>
+  <si>
+    <t>Wielandstrasse 37, 10629 Berlin</t>
+  </si>
+  <si>
+    <t>Gipsstrasse 3, 10119 Berlin</t>
+  </si>
+  <si>
+    <t>Mulackstrasse 33, 10119 Berlin</t>
+  </si>
+  <si>
+    <t>Angry Chicken</t>
+  </si>
+  <si>
+    <t>Oranienstrasse 16, 10999 Berlin</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>Albrechtstrasse 125, 12165 Berlin</t>
+  </si>
+  <si>
+    <t>Jing Yang</t>
+  </si>
+  <si>
+    <t>jy</t>
+  </si>
+  <si>
+    <t>Liu Nudelhaus</t>
+  </si>
+  <si>
+    <t>Kronenstrasse 72, 10117 Berlin</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>How How Restaurantbetriebs GmbH</t>
+  </si>
+  <si>
+    <t>Oranienburger Str. 168, 13437 Berlin</t>
+  </si>
+  <si>
+    <t>KYO Grill</t>
+  </si>
+  <si>
+    <t>Kastanienallee 23, 10435 Berlin</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
 </sst>
 </file>
@@ -474,40 +555,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -526,8 +610,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -544,10 +631,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -564,10 +654,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -584,10 +677,13 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -604,10 +700,13 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -624,10 +723,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -644,10 +746,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -664,10 +769,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -684,10 +792,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -704,10 +815,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -724,12 +838,15 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -744,7 +861,125 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>52.500605999999998</v>
+      </c>
+      <c r="D14">
+        <v>13.422986</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>52.456026000000001</v>
+      </c>
+      <c r="D15">
+        <v>13.324730000000001</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>52.511262000000002</v>
+      </c>
+      <c r="D16">
+        <v>13.387593000000001</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>52.601233999999998</v>
+      </c>
+      <c r="D17">
+        <v>13.330729</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>52.538082000000003</v>
+      </c>
+      <c r="D18">
+        <v>13.408621999999999</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sisihuang/Documents/personal info./for fun/InteractiveMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sisihuang/Documents/GitHub/InteractiveMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1000" windowWidth="28800" windowHeight="15640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,7 +918,7 @@
         <v>49</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>52.511262000000002</v>
